--- a/data/trans_orig/P1499-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1499-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A629F07-1F68-4AA9-8A0D-CA69E5FBB65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76B27C0A-04E5-4C84-8B5C-9925BED293DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CBF0B8D-F10C-40E4-A0ED-A3384839E24E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8B38F61-4F0D-4E90-9224-1C85DA082EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BDE8C4-1194-448D-AF46-0081ED471BCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9441ACB-70D1-45BB-84A2-2B0E53B5C232}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1499-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1499-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76B27C0A-04E5-4C84-8B5C-9925BED293DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B6047F-E5C2-4BD6-9D48-0D7460950B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8B38F61-4F0D-4E90-9224-1C85DA082EA8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9A48FEE-3CC2-4E7F-9503-85473B3B6494}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
   <si>
-    <t>Población con diagnóstico de otra enfermedad 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población con diagnóstico de otra enfermedad 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -74,13 +74,13 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9441ACB-70D1-45BB-84A2-2B0E53B5C232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC56E893-5772-47DE-8E76-E9508154190F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
